--- a/7/2/3/1/Depósitos 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/3/1/Depósitos 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>Serie</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6818,22 +6821,22 @@
         <v>15714</v>
       </c>
       <c r="J75">
-        <v>5441</v>
+        <v>5444</v>
       </c>
       <c r="K75">
-        <v>1587</v>
+        <v>1605</v>
       </c>
       <c r="L75">
-        <v>4807</v>
+        <v>4785</v>
       </c>
       <c r="M75">
-        <v>6764</v>
+        <v>6766</v>
       </c>
       <c r="N75">
-        <v>43224</v>
+        <v>43123</v>
       </c>
       <c r="O75">
-        <v>57928</v>
+        <v>58028</v>
       </c>
       <c r="P75">
         <v>1919</v>
@@ -6845,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="S75">
-        <v>20102</v>
+        <v>19526</v>
       </c>
       <c r="T75">
         <v>1362</v>
@@ -6854,22 +6857,105 @@
         <v>6850</v>
       </c>
       <c r="V75">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="W75">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="X75">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="Y75">
         <v>1330</v>
       </c>
       <c r="Z75">
-        <v>7341</v>
+        <v>6925</v>
       </c>
       <c r="AA75">
-        <v>1946</v>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76">
+        <v>22748</v>
+      </c>
+      <c r="C76">
+        <v>22683</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>64</v>
+      </c>
+      <c r="F76">
+        <v>152402</v>
+      </c>
+      <c r="G76">
+        <v>46</v>
+      </c>
+      <c r="H76">
+        <v>6019</v>
+      </c>
+      <c r="I76">
+        <v>15278</v>
+      </c>
+      <c r="J76">
+        <v>6272</v>
+      </c>
+      <c r="K76">
+        <v>1519</v>
+      </c>
+      <c r="L76">
+        <v>4245</v>
+      </c>
+      <c r="M76">
+        <v>7603</v>
+      </c>
+      <c r="N76">
+        <v>42591</v>
+      </c>
+      <c r="O76">
+        <v>66912</v>
+      </c>
+      <c r="P76">
+        <v>1915</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>23588</v>
+      </c>
+      <c r="T76">
+        <v>2928</v>
+      </c>
+      <c r="U76">
+        <v>8215</v>
+      </c>
+      <c r="V76">
+        <v>866</v>
+      </c>
+      <c r="W76">
+        <v>27</v>
+      </c>
+      <c r="X76">
+        <v>345</v>
+      </c>
+      <c r="Y76">
+        <v>1425</v>
+      </c>
+      <c r="Z76">
+        <v>7790</v>
+      </c>
+      <c r="AA76">
+        <v>1991</v>
       </c>
     </row>
   </sheetData>
